--- a/International_Inventory_Calculator_updating_package/International Inventory Calculator v7.5_current.xlsx
+++ b/International_Inventory_Calculator_updating_package/International Inventory Calculator v7.5_current.xlsx
@@ -578,6 +578,9 @@
     <t>Mobile: YOY</t>
   </si>
   <si>
+    <t>Mon Sep  8 16:05:30 2014</t>
+  </si>
+  <si>
     <t>Month</t>
   </si>
   <si>
@@ -924,9 +927,6 @@
   </si>
   <si>
     <t>This spreadsheet will give you forecasted inventory and revenue for about 60 different countries. It breaks data down on a monthly basis, stretching 12 months into the future.</t>
-  </si>
-  <si>
-    <t>Thu Sep  4 12:39:08 2014</t>
   </si>
   <si>
     <t>To account for seasonalities in fill rates, leave these four cells empty and scroll down to enter fill rates by month manually in Monthly breakdowns below</t>
@@ -2652,7 +2652,7 @@
         <v>165</v>
       </c>
       <c s="195" r="C1" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
     </row>
     <row customFormat="1" ht="23.0" customHeight="1" s="146" r="5" spans="1:4">
@@ -2668,7 +2668,7 @@
     </row>
     <row customHeight="1" r="7" ht="15.0" spans="1:4">
       <c s="140" r="B7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c s="140" r="C7" t="s"/>
       <c s="140" r="D7" t="s"/>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="13" spans="1:4">
       <c s="133" r="B13" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c s="1" r="C13" t="s"/>
       <c s="113" r="D13" t="s"/>
@@ -2771,7 +2771,7 @@
     </row>
     <row customHeight="1" r="25" ht="47.0" spans="1:4">
       <c s="289" r="B25" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c s="289" r="C25" t="s"/>
       <c s="289" r="D25" t="s"/>
@@ -2783,11 +2783,11 @@
     </row>
     <row customHeight="1" r="27" ht="16.0" spans="1:4">
       <c s="234" r="B27" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c s="225" r="C27" t="s"/>
       <c s="216" r="D27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row customHeight="1" r="28" ht="16.0" spans="1:4">
@@ -2825,11 +2825,11 @@
     </row>
     <row customHeight="1" r="33" ht="30.0" spans="1:4">
       <c s="242" r="B33" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c s="227" r="C33" t="s"/>
       <c s="212" r="D33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row customHeight="1" r="34" ht="16.0" spans="1:4">
@@ -2839,11 +2839,11 @@
     </row>
     <row customHeight="1" r="35" ht="30.0" spans="1:4">
       <c s="243" r="B35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c s="228" r="C35" t="s"/>
       <c s="221" r="D35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row customHeight="1" r="36" ht="15.0" spans="1:4">
@@ -2853,11 +2853,11 @@
     </row>
     <row customHeight="1" r="37" ht="15.0" spans="1:4">
       <c s="244" r="B37" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c s="229" r="C37" t="s"/>
       <c s="215" r="D37" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row customHeight="1" r="38" ht="15.0" spans="1:4">
@@ -2867,7 +2867,7 @@
     </row>
     <row customHeight="1" r="39" ht="30.0" spans="1:4">
       <c s="242" r="B39" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c s="227" r="C39" t="s"/>
       <c s="212" r="D39" t="s">
@@ -2885,7 +2885,7 @@
       </c>
       <c s="230" r="C41" t="s"/>
       <c s="217" r="D41" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row customHeight="1" r="42" ht="15.0" spans="1:4">
@@ -2899,7 +2899,7 @@
       </c>
       <c s="207" r="C43" t="s"/>
       <c s="214" r="D43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row customHeight="1" r="44" ht="15.0" spans="1:4">
@@ -2923,11 +2923,11 @@
     </row>
     <row customHeight="1" r="47" ht="30.0" spans="1:4">
       <c s="244" r="B47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c s="229" r="C47" t="s"/>
       <c s="215" r="D47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2947,7 +2947,7 @@
     </row>
     <row customFormat="1" ht="23.0" customHeight="1" s="146" r="51" spans="1:4">
       <c s="195" r="B51" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c s="195" r="C51" t="s"/>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c s="207" r="C53" t="s"/>
       <c s="140" r="D53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row customHeight="1" r="54" ht="15.0" spans="1:4">
@@ -2989,7 +2989,7 @@
       </c>
       <c s="207" r="C56" t="s"/>
       <c s="140" r="D56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row customHeight="1" r="57" ht="15.0" spans="1:4">
@@ -3012,7 +3012,7 @@
       </c>
       <c s="207" r="C59" t="s"/>
       <c s="140" r="D59" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row customHeight="1" r="60" ht="15.0" spans="1:4">
@@ -3022,11 +3022,11 @@
     </row>
     <row customHeight="1" r="61" ht="15.0" spans="1:4">
       <c s="237" r="B61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c s="207" r="C61" t="s"/>
       <c s="140" r="D61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row customHeight="1" r="62" ht="15.0" spans="1:4">
@@ -3040,7 +3040,7 @@
       </c>
       <c s="218" r="C63" t="s"/>
       <c s="219" r="D63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row customHeight="1" r="64" ht="15.0" spans="1:4">
@@ -3088,7 +3088,7 @@
       </c>
       <c s="261" r="C71" t="s"/>
       <c s="248" r="D71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row customHeight="1" r="72" ht="15.0" spans="1:4">
@@ -3142,7 +3142,7 @@
       </c>
       <c s="231" r="C79" t="s"/>
       <c s="221" r="D79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row customHeight="1" r="80" ht="15.0" spans="1:4">
@@ -3156,7 +3156,7 @@
       </c>
       <c s="231" r="C81" t="s"/>
       <c s="221" r="D81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row customHeight="1" r="82" ht="15.0" spans="1:4">
@@ -3170,7 +3170,7 @@
       </c>
       <c s="231" r="C83" t="s"/>
       <c s="221" r="D83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row customHeight="1" r="84" ht="15.0" spans="1:4">
@@ -3184,7 +3184,7 @@
       </c>
       <c s="233" r="C85" t="s"/>
       <c s="248" r="D85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row customHeight="1" r="86" ht="15.0" spans="1:4">
@@ -3210,7 +3210,7 @@
       </c>
       <c s="209" r="C89" t="s"/>
       <c s="255" r="D89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row customHeight="1" r="90" ht="15.0" spans="1:4">
@@ -3219,7 +3219,7 @@
       </c>
       <c s="209" r="C90" t="s"/>
       <c s="252" r="D90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row customHeight="1" r="91" ht="30.0" spans="1:4">
@@ -3228,7 +3228,7 @@
       </c>
       <c s="254" r="C91" t="s"/>
       <c s="256" r="D91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3350,10 +3350,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E19" t="s">
         <v>114</v>
@@ -3373,7 +3373,7 @@
     </row>
     <row r="21" spans="1:13">
       <c s="14" r="B21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C21">
         <f>(1+C20)^(1/12)-1</f>
@@ -3390,10 +3390,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="24" spans="1:13">
       <c s="18" r="A24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3599,10 +3599,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E46" t="s">
         <v>113</v>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="48" spans="1:13">
       <c s="14" r="B48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C48">
         <f>(1+C47)^(1/12)-1</f>
@@ -3652,10 +3652,10 @@
     </row>
     <row customHeight="1" r="51" ht="14.0" spans="1:13">
       <c s="18" r="A51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="18" r="C51" t="s"/>
       <c s="18" r="D51" t="s"/>
@@ -3913,10 +3913,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C84" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D84" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E84" t="s">
         <v>114</v>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="86" spans="1:13">
       <c s="14" r="B86" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C86">
         <f>(1+C85)^(1/12)-1</f>
@@ -3953,10 +3953,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="89" spans="1:13">
       <c s="18" r="A89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:13">
@@ -4162,10 +4162,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E111" t="s">
         <v>113</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="113" spans="1:13">
       <c s="14" r="B113" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C113">
         <f>(1+C112)^(1/12)-1</f>
@@ -4212,10 +4212,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="115" spans="1:13">
       <c s="18" r="A115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B115" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -4483,10 +4483,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C148" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D148" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E148" t="s">
         <v>114</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="150" spans="1:13">
       <c s="14" r="B150" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C150">
         <f>(1+C149)^(1/12)-1</f>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="154" spans="1:13">
       <c s="14" r="A154" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B154" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -4712,10 +4712,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C175" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D175" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E175" t="s">
         <v>113</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="177" spans="1:13">
       <c s="14" r="B177" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C177">
         <f>(1+C176)^(1/12)-1</f>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="179" spans="1:13">
       <c s="14" r="A179" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B179" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -5002,10 +5002,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C212" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D212" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E212" t="s">
         <v>114</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="214" spans="1:13">
       <c s="14" r="B214" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C214">
         <f>(1+C213)^(1/12)-1</f>
@@ -5042,10 +5042,10 @@
     </row>
     <row r="218" spans="1:13">
       <c s="14" r="A218" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B218" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -5231,10 +5231,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C239" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D239" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E239" t="s">
         <v>113</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="241" spans="1:13">
       <c s="14" r="B241" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C241">
         <f>(1+C240)^(1/12)-1</f>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="243" spans="1:13">
       <c s="14" r="A243" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B243" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -5529,10 +5529,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C276" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D276" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E276" t="s">
         <v>114</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="278" spans="1:13">
       <c s="14" r="B278" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C278">
         <f>(1+C277)^(1/12)-1</f>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="282" spans="1:13">
       <c s="14" r="A282" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B282" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -5758,10 +5758,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C303" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D303" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E303" t="s">
         <v>113</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="305" spans="1:13">
       <c s="14" r="B305" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C305">
         <f>(1+C304)^(1/12)-1</f>
@@ -5808,10 +5808,10 @@
     </row>
     <row r="307" spans="1:13">
       <c s="14" r="A307" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B307" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="308" spans="1:13">
@@ -6048,10 +6048,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C340" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D340" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E340" t="s">
         <v>114</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="342" spans="1:13">
       <c s="14" r="B342" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C342">
         <f>(1+C341)^(1/12)-1</f>
@@ -6088,10 +6088,10 @@
     </row>
     <row r="346" spans="1:13">
       <c s="14" r="A346" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B346" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="347" spans="1:13">
@@ -6277,10 +6277,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C367" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D367" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E367" t="s">
         <v>113</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="369" spans="1:13">
       <c s="14" r="B369" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C369">
         <f>(1+C368)^(1/12)-1</f>
@@ -6327,10 +6327,10 @@
     </row>
     <row r="371" spans="1:13">
       <c s="14" r="A371" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B371" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="372" spans="1:13">
@@ -6597,10 +6597,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C404" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D404" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E404" t="s">
         <v>114</v>
@@ -6620,7 +6620,7 @@
     </row>
     <row r="406" spans="1:13">
       <c s="14" r="B406" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C406">
         <f>(1+C405)^(1/12)-1</f>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="410" spans="1:13">
       <c s="14" r="A410" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B410" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="411" spans="1:13">
@@ -6826,10 +6826,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C431" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D431" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E431" t="s">
         <v>113</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="433" spans="1:13">
       <c s="14" r="B433" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C433">
         <f>(1+C432)^(1/12)-1</f>
@@ -6876,10 +6876,10 @@
     </row>
     <row r="435" spans="1:13">
       <c s="14" r="A435" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B435" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="436" spans="1:13">
@@ -7121,10 +7121,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C467" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D467" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="52" r="E467" t="s">
         <v>114</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="469" spans="1:13">
       <c s="10" r="B469" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C469">
         <f>(1+C468)^(1/12)-1</f>
@@ -7178,10 +7178,10 @@
     </row>
     <row r="472" spans="1:13">
       <c s="14" r="A472" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B472" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C472" t="s"/>
       <c s="10" r="D472" t="s"/>
@@ -7361,7 +7361,7 @@
         <v>171</v>
       </c>
       <c s="14" r="M488" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" r="489" ht="16.0" spans="1:13">
@@ -7409,10 +7409,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C493" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D493" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="59" r="E493" t="s">
         <v>113</v>
@@ -7440,7 +7440,7 @@
     <row r="495" spans="1:13">
       <c s="10" r="A495" t="s"/>
       <c s="10" r="B495" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C495">
         <f>(1+C494)^(1/12)-1</f>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="497" spans="1:13">
       <c s="10" r="A497" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B497" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C497" t="s"/>
       <c s="10" r="D497" t="s"/>
@@ -7677,7 +7677,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="516" spans="1:13">
       <c s="144" r="B516" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c s="145" r="C516" t="s"/>
       <c s="145" r="D516" t="s"/>
@@ -7754,10 +7754,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C530" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D530" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E530" t="s">
         <v>114</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="532" spans="1:13">
       <c s="14" r="B532" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C532">
         <f>(1+C531)^(1/12)-1</f>
@@ -7794,10 +7794,10 @@
     </row>
     <row r="536" spans="1:13">
       <c s="14" r="A536" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B536" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="537" spans="1:13">
@@ -7983,10 +7983,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C557" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D557" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E557" t="s">
         <v>113</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="559" spans="1:13">
       <c s="14" r="B559" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C559">
         <f>(1+C558)^(1/12)-1</f>
@@ -8033,10 +8033,10 @@
     </row>
     <row r="561" spans="1:13">
       <c s="14" r="A561" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B561" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="562" spans="1:13">
@@ -8297,10 +8297,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C594" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D594" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E594" t="s">
         <v>114</v>
@@ -8320,7 +8320,7 @@
     </row>
     <row r="596" spans="1:13">
       <c s="14" r="B596" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C596">
         <f>(1+C595)^(1/12)-1</f>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="600" spans="1:13">
       <c s="14" r="A600" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B600" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="601" spans="1:13">
@@ -8526,10 +8526,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C621" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D621" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E621" t="s">
         <v>113</v>
@@ -8555,7 +8555,7 @@
     </row>
     <row r="623" spans="1:13">
       <c s="14" r="B623" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C623">
         <f>(1+C622)^(1/12)-1</f>
@@ -8576,10 +8576,10 @@
     </row>
     <row r="625" spans="1:13">
       <c s="14" r="A625" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B625" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="626" spans="1:13">
@@ -8840,10 +8840,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C658" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D658" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E658" t="s">
         <v>114</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="660" spans="1:13">
       <c s="14" r="B660" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C660">
         <f>(1+C659)^(1/12)-1</f>
@@ -8880,10 +8880,10 @@
     </row>
     <row r="664" spans="1:13">
       <c s="14" r="A664" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B664" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="665" spans="1:13">
@@ -9069,10 +9069,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C685" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D685" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E685" t="s">
         <v>113</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="687" spans="1:13">
       <c s="14" r="B687" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C687">
         <f>(1+C686)^(1/12)-1</f>
@@ -9119,10 +9119,10 @@
     </row>
     <row r="689" spans="1:13">
       <c s="14" r="A689" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B689" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="690" spans="1:13">
@@ -9353,7 +9353,7 @@
         <v>0.2537</v>
       </c>
       <c s="19" r="D8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -9417,10 +9417,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="52" r="E18" t="s">
         <v>114</v>
@@ -9442,7 +9442,7 @@
     </row>
     <row r="20" spans="1:13">
       <c s="10" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C20">
         <f>(1+C19)^(1/12)-1</f>
@@ -9474,10 +9474,10 @@
     </row>
     <row r="23" spans="1:13">
       <c s="14" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C23" t="s"/>
       <c s="10" r="D23" t="s"/>
@@ -9657,7 +9657,7 @@
         <v>171</v>
       </c>
       <c s="14" r="M39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" r="40" ht="16.0" spans="1:13">
@@ -9705,10 +9705,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="59" r="E44" t="s">
         <v>113</v>
@@ -9736,7 +9736,7 @@
     <row r="46" spans="1:13">
       <c s="10" r="A46" t="s"/>
       <c s="10" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C46">
         <f>(1+C45)^(1/12)-1</f>
@@ -9765,10 +9765,10 @@
     </row>
     <row r="48" spans="1:13">
       <c s="10" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C48" t="s"/>
       <c s="10" r="D48" t="s"/>
@@ -10064,10 +10064,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C82" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E82" t="s">
         <v>114</v>
@@ -10087,7 +10087,7 @@
     </row>
     <row r="84" spans="1:13">
       <c s="14" r="B84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C84">
         <f>(1+C83)^(1/12)-1</f>
@@ -10104,10 +10104,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="87" spans="1:13">
       <c s="18" r="A87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B87" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -10313,10 +10313,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E109" t="s">
         <v>113</v>
@@ -10342,7 +10342,7 @@
     </row>
     <row r="111" spans="1:13">
       <c s="14" r="B111" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C111">
         <f>(1+C110)^(1/12)-1</f>
@@ -10363,10 +10363,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="113" spans="1:13">
       <c s="18" r="A113" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B113" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:13">
@@ -10623,10 +10623,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D146" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E146" t="s">
         <v>114</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="148" spans="1:13">
       <c s="14" r="B148" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C148">
         <f>(1+C147)^(1/12)-1</f>
@@ -10663,10 +10663,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="151" spans="1:13">
       <c s="18" r="A151" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B151" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -10872,10 +10872,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C173" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D173" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E173" t="s">
         <v>113</v>
@@ -10901,7 +10901,7 @@
     </row>
     <row r="175" spans="1:13">
       <c s="14" r="B175" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C175">
         <f>(1+C174)^(1/12)-1</f>
@@ -10925,10 +10925,10 @@
     </row>
     <row customHeight="1" r="178" ht="14.0" spans="1:13">
       <c s="18" r="A178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B178" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="18" r="C178" t="s"/>
       <c s="18" r="D178" t="s"/>
@@ -11202,10 +11202,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C212" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D212" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E212" t="s">
         <v>114</v>
@@ -11225,7 +11225,7 @@
     </row>
     <row r="214" spans="1:13">
       <c s="14" r="B214" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C214">
         <f>(1+C213)^(1/12)-1</f>
@@ -11242,10 +11242,10 @@
     </row>
     <row r="218" spans="1:13">
       <c s="14" r="A218" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B218" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -11431,10 +11431,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C239" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D239" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E239" t="s">
         <v>113</v>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="241" spans="1:13">
       <c s="14" r="B241" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C241">
         <f>(1+C240)^(1/12)-1</f>
@@ -11481,10 +11481,10 @@
     </row>
     <row r="243" spans="1:13">
       <c s="14" r="A243" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B243" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -11721,10 +11721,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C273" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D273" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E273" t="s">
         <v>114</v>
@@ -11744,7 +11744,7 @@
     </row>
     <row r="275" spans="1:13">
       <c s="14" r="B275" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C275">
         <f>(1+C274)^(1/12)-1</f>
@@ -11761,10 +11761,10 @@
     </row>
     <row r="279" spans="1:13">
       <c s="14" r="A279" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B279" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -11950,10 +11950,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C300" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D300" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E300" t="s">
         <v>113</v>
@@ -11979,7 +11979,7 @@
     </row>
     <row r="302" spans="1:13">
       <c s="14" r="B302" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C302">
         <f>(1+C301)^(1/12)-1</f>
@@ -12000,10 +12000,10 @@
     </row>
     <row r="304" spans="1:13">
       <c s="14" r="A304" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B304" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="305" spans="1:13">
@@ -12240,10 +12240,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C334" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D334" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E334" t="s">
         <v>114</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="336" spans="1:13">
       <c s="14" r="B336" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C336">
         <f>(1+C335)^(1/12)-1</f>
@@ -12280,10 +12280,10 @@
     </row>
     <row r="340" spans="1:13">
       <c s="14" r="A340" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B340" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="341" spans="1:13">
@@ -12469,10 +12469,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C361" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D361" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E361" t="s">
         <v>113</v>
@@ -12498,7 +12498,7 @@
     </row>
     <row r="363" spans="1:13">
       <c s="14" r="B363" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C363">
         <f>(1+C362)^(1/12)-1</f>
@@ -12519,10 +12519,10 @@
     </row>
     <row r="365" spans="1:13">
       <c s="14" r="A365" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B365" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="366" spans="1:13">
@@ -12757,10 +12757,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C395" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D395" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E395" t="s">
         <v>114</v>
@@ -12780,7 +12780,7 @@
     </row>
     <row r="397" spans="1:13">
       <c s="14" r="B397" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C397">
         <f>(1+C396)^(1/12)-1</f>
@@ -12797,10 +12797,10 @@
     </row>
     <row r="401" spans="1:13">
       <c s="14" r="A401" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B401" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="402" spans="1:13">
@@ -12986,10 +12986,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C422" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D422" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E422" t="s">
         <v>113</v>
@@ -13015,7 +13015,7 @@
     </row>
     <row r="424" spans="1:13">
       <c s="14" r="B424" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C424">
         <f>(1+C423)^(1/12)-1</f>
@@ -13036,10 +13036,10 @@
     </row>
     <row r="426" spans="1:13">
       <c s="14" r="A426" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B426" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="427" spans="1:13">
@@ -13276,10 +13276,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C457" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D457" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E457" t="s">
         <v>114</v>
@@ -13299,7 +13299,7 @@
     </row>
     <row r="459" spans="1:13">
       <c s="14" r="B459" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C459">
         <f>(1+C458)^(1/12)-1</f>
@@ -13313,10 +13313,10 @@
     </row>
     <row r="463" spans="1:13">
       <c s="14" r="A463" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B463" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="464" spans="1:13">
@@ -13502,10 +13502,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C484" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D484" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E484" t="s">
         <v>113</v>
@@ -13531,7 +13531,7 @@
     </row>
     <row r="486" spans="1:13">
       <c s="14" r="B486" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C486">
         <f>(1+C485)^(1/12)-1</f>
@@ -13552,10 +13552,10 @@
     </row>
     <row r="488" spans="1:13">
       <c s="14" r="A488" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B488" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="489" spans="1:13">
@@ -13736,7 +13736,7 @@
         <v>0.1773</v>
       </c>
       <c s="19" r="D509" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="510" spans="1:13">
@@ -13794,10 +13794,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C520" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D520" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E520" t="s">
         <v>114</v>
@@ -13817,7 +13817,7 @@
     </row>
     <row r="522" spans="1:13">
       <c s="14" r="B522" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C522">
         <f>(1+C521)^(1/12)-1</f>
@@ -13834,10 +13834,10 @@
     </row>
     <row r="526" spans="1:13">
       <c s="14" r="A526" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B526" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="527" spans="1:13">
@@ -14023,10 +14023,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C547" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D547" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E547" t="s">
         <v>113</v>
@@ -14052,7 +14052,7 @@
     </row>
     <row r="549" spans="1:13">
       <c s="14" r="B549" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C549">
         <f>(1+C548)^(1/12)-1</f>
@@ -14073,10 +14073,10 @@
     </row>
     <row r="551" spans="1:13">
       <c s="14" r="A551" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B551" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="552" spans="1:13">
@@ -14236,7 +14236,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="569" spans="1:13">
       <c s="144" r="B569" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c s="145" r="C569" t="s"/>
       <c s="145" r="D569" t="s"/>
@@ -14311,10 +14311,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C583" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D583" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E583" t="s">
         <v>114</v>
@@ -14334,7 +14334,7 @@
     </row>
     <row r="585" spans="1:13">
       <c s="14" r="B585" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C585">
         <f>(1+C584)^(1/12)-1</f>
@@ -14351,10 +14351,10 @@
     </row>
     <row r="589" spans="1:13">
       <c s="14" r="A589" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B589" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="590" spans="1:13">
@@ -14540,10 +14540,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C610" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D610" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E610" t="s">
         <v>113</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="612" spans="1:13">
       <c s="14" r="B612" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C612">
         <f>(1+C611)^(1/12)-1</f>
@@ -14590,10 +14590,10 @@
     </row>
     <row r="614" spans="1:13">
       <c s="14" r="A614" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B614" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="615" spans="1:13">
@@ -14795,7 +14795,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="635" spans="1:13">
       <c s="144" r="B635" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c s="145" r="C635" t="s"/>
       <c s="145" r="D635" t="s"/>
@@ -14870,10 +14870,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C649" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D649" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E649" t="s">
         <v>114</v>
@@ -14893,7 +14893,7 @@
     </row>
     <row r="651" spans="1:13">
       <c s="14" r="B651" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C651">
         <f>(1+C650)^(1/12)-1</f>
@@ -14910,10 +14910,10 @@
     </row>
     <row r="655" spans="1:13">
       <c s="14" r="A655" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B655" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="656" spans="1:13">
@@ -15099,10 +15099,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C676" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D676" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E676" t="s">
         <v>113</v>
@@ -15128,7 +15128,7 @@
     </row>
     <row r="678" spans="1:13">
       <c s="14" r="B678" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C678">
         <f>(1+C677)^(1/12)-1</f>
@@ -15149,10 +15149,10 @@
     </row>
     <row r="680" spans="1:13">
       <c s="14" r="A680" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B680" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="681" spans="1:13">
@@ -15325,7 +15325,7 @@
     <row customFormat="1" ht="29.0" customHeight="1" s="143" r="701" spans="1:13">
       <c s="146" r="A701" t="s"/>
       <c s="144" r="B701" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c s="145" r="C701" t="s"/>
       <c s="145" r="D701" t="s"/>
@@ -15404,10 +15404,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C715" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D715" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E715" t="s">
         <v>114</v>
@@ -15427,7 +15427,7 @@
     </row>
     <row r="717" spans="1:13">
       <c s="14" r="B717" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C717">
         <f>(1+C716)^(1/12)-1</f>
@@ -15444,10 +15444,10 @@
     </row>
     <row r="721" spans="1:13">
       <c s="14" r="A721" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B721" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="722" spans="1:13">
@@ -15633,10 +15633,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C742" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D742" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E742" t="s">
         <v>113</v>
@@ -15662,7 +15662,7 @@
     </row>
     <row r="744" spans="1:13">
       <c s="14" r="B744" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C744">
         <f>(1+C743)^(1/12)-1</f>
@@ -15683,10 +15683,10 @@
     </row>
     <row r="746" spans="1:13">
       <c s="14" r="A746" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B746" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="747" spans="1:13">
@@ -15859,7 +15859,7 @@
     <row customFormat="1" ht="29.0" customHeight="1" s="143" r="767" spans="1:13">
       <c s="146" r="A767" t="s"/>
       <c s="144" r="B767" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c s="145" r="C767" t="s"/>
       <c s="145" r="D767" t="s"/>
@@ -15936,10 +15936,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C781" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D781" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E781" t="s">
         <v>114</v>
@@ -15959,7 +15959,7 @@
     </row>
     <row r="783" spans="1:13">
       <c s="14" r="B783" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C783">
         <f>(1+C782)^(1/12)-1</f>
@@ -15976,10 +15976,10 @@
     </row>
     <row r="787" spans="1:13">
       <c s="14" r="A787" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B787" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="788" spans="1:13">
@@ -16165,10 +16165,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C808" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D808" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E808" t="s">
         <v>113</v>
@@ -16194,7 +16194,7 @@
     </row>
     <row r="810" spans="1:13">
       <c s="14" r="B810" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C810">
         <f>(1+C809)^(1/12)-1</f>
@@ -16215,10 +16215,10 @@
     </row>
     <row r="812" spans="1:13">
       <c s="14" r="A812" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B812" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="813" spans="1:13">
@@ -16397,7 +16397,7 @@
     <row customFormat="1" ht="29.0" customHeight="1" s="143" r="833" spans="1:13">
       <c s="146" r="A833" t="s"/>
       <c s="144" r="B833" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c s="145" r="C833" t="s"/>
       <c s="145" r="D833" t="s"/>
@@ -16420,7 +16420,7 @@
         <v>0.1662</v>
       </c>
       <c s="19" r="D836" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="837" spans="1:13">
@@ -16478,10 +16478,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C847" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D847" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E847" t="s">
         <v>114</v>
@@ -16501,7 +16501,7 @@
     </row>
     <row r="849" spans="1:13">
       <c s="14" r="B849" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C849">
         <f>(1+C848)^(1/12)-1</f>
@@ -16518,10 +16518,10 @@
     </row>
     <row r="853" spans="1:13">
       <c s="14" r="A853" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B853" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="854" spans="1:13">
@@ -16707,10 +16707,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C874" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D874" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E874" t="s">
         <v>113</v>
@@ -16736,7 +16736,7 @@
     </row>
     <row r="876" spans="1:13">
       <c s="14" r="B876" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C876">
         <f>(1+C875)^(1/12)-1</f>
@@ -16757,10 +16757,10 @@
     </row>
     <row r="878" spans="1:13">
       <c s="14" r="A878" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B878" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="879" spans="1:13">
@@ -17010,10 +17010,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C913" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D913" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E913" t="s">
         <v>114</v>
@@ -17033,7 +17033,7 @@
     </row>
     <row r="915" spans="1:13">
       <c s="14" r="B915" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C915">
         <f>(1+C914)^(1/12)-1</f>
@@ -17050,10 +17050,10 @@
     </row>
     <row r="919" spans="1:13">
       <c s="14" r="A919" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B919" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="920" spans="1:13">
@@ -17239,10 +17239,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C940" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D940" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E940" t="s">
         <v>113</v>
@@ -17268,7 +17268,7 @@
     </row>
     <row r="942" spans="1:13">
       <c s="14" r="B942" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C942">
         <f>(1+C941)^(1/12)-1</f>
@@ -17289,10 +17289,10 @@
     </row>
     <row r="944" spans="1:13">
       <c s="14" r="A944" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B944" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="945" spans="1:13">
@@ -17602,10 +17602,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="61" r="D19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="62" r="E19" t="s">
         <v>114</v>
@@ -17629,7 +17629,7 @@
     <row r="21" spans="1:13">
       <c s="10" r="A21" t="s"/>
       <c s="10" r="B21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C21">
         <f>(1+C20)^(1/12)-1</f>
@@ -17663,10 +17663,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="24" spans="1:13">
       <c s="49" r="A24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="49" r="C24" t="s"/>
       <c s="49" r="D24" t="s"/>
@@ -17915,10 +17915,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D46" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="59" r="E46" t="s">
         <v>113</v>
@@ -17946,7 +17946,7 @@
     <row r="48" spans="1:13">
       <c s="10" r="A48" t="s"/>
       <c s="10" r="B48" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C48">
         <f>(1+C47)^(1/12)-1</f>
@@ -17983,10 +17983,10 @@
     </row>
     <row r="51" spans="1:13">
       <c s="49" r="A51" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="49" r="C51" t="s"/>
       <c s="49" r="D51" t="s"/>
@@ -18316,10 +18316,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C85" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="61" r="D85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="62" r="E85" t="s">
         <v>114</v>
@@ -18343,7 +18343,7 @@
     <row r="87" spans="1:13">
       <c s="10" r="A87" t="s"/>
       <c s="10" r="B87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C87">
         <f>(1+C86)^(1/12)-1</f>
@@ -18385,10 +18385,10 @@
     </row>
     <row r="91" spans="1:13">
       <c s="10" r="A91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C91" t="s"/>
       <c s="10" r="D91" t="s"/>
@@ -18613,10 +18613,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="59" r="E112" t="s">
         <v>113</v>
@@ -18644,7 +18644,7 @@
     <row r="114" spans="1:13">
       <c s="10" r="A114" t="s"/>
       <c s="10" r="B114" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C114">
         <f>(1+C113)^(1/12)-1</f>
@@ -18673,10 +18673,10 @@
     </row>
     <row r="116" spans="1:13">
       <c s="10" r="A116" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B116" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C116" t="s"/>
       <c s="10" r="D116" t="s"/>
@@ -18853,7 +18853,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="135" spans="1:13">
       <c s="144" r="B135" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row customHeight="1" r="136" ht="20.0" spans="1:13">
@@ -18927,10 +18927,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C148" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D148" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="52" r="E148" t="s">
         <v>114</v>
@@ -18952,7 +18952,7 @@
     </row>
     <row r="150" spans="1:13">
       <c s="10" r="B150" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C150">
         <f>(1+C149)^(1/12)-1</f>
@@ -18984,10 +18984,10 @@
     </row>
     <row r="153" spans="1:13">
       <c s="10" r="A153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B153" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C153" t="s"/>
       <c s="10" r="D153" t="s"/>
@@ -19167,7 +19167,7 @@
         <v>171</v>
       </c>
       <c s="14" r="M169" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row customHeight="1" r="170" ht="16.0" spans="1:13">
@@ -19215,10 +19215,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C174" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D174" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="59" r="E174" t="s">
         <v>113</v>
@@ -19246,7 +19246,7 @@
     <row r="176" spans="1:13">
       <c s="10" r="A176" t="s"/>
       <c s="10" r="B176" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C176">
         <f>(1+C175)^(1/12)-1</f>
@@ -19275,10 +19275,10 @@
     </row>
     <row r="178" spans="1:13">
       <c s="10" r="A178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B178" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="10" r="C178" t="s"/>
       <c s="10" r="D178" t="s"/>
@@ -19491,7 +19491,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="197" spans="1:13">
       <c s="144" r="B197" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -19587,10 +19587,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C210" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="61" r="D210" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="62" r="E210" t="s">
         <v>114</v>
@@ -19614,7 +19614,7 @@
     <row r="212" spans="1:13">
       <c s="10" r="A212" t="s"/>
       <c s="10" r="B212" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C212">
         <f>(1+C211)^(1/12)-1</f>
@@ -19648,10 +19648,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="215" spans="1:13">
       <c s="49" r="A215" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B215" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="49" r="C215" t="s"/>
       <c s="49" r="D215" t="s"/>
@@ -19898,10 +19898,10 @@
         <v>117</v>
       </c>
       <c s="10" r="C237" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="51" r="D237" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="59" r="E237" t="s">
         <v>113</v>
@@ -19929,7 +19929,7 @@
     <row r="239" spans="1:13">
       <c s="10" r="A239" t="s"/>
       <c s="10" r="B239" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="55" r="C239">
         <f>(1+C238)^(1/12)-1</f>
@@ -19958,10 +19958,10 @@
     </row>
     <row customFormat="1" ht="14.0" customHeight="1" s="18" r="241" spans="1:13">
       <c s="49" r="A241" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="10" r="B241" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="49" r="C241" t="s"/>
       <c s="49" r="D241" t="s"/>
@@ -20207,7 +20207,7 @@
   <sheetData>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="5" spans="1:6">
       <c s="144" r="B5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="20.0" spans="1:6">
@@ -20332,10 +20332,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="44" r="E18" t="s">
         <v>114</v>
@@ -20359,7 +20359,7 @@
     <row r="20" spans="1:6">
       <c s="19" r="A20" t="s"/>
       <c s="19" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C20" t="n">
         <v>0</v>
@@ -20392,10 +20392,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="19" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C23" t="s"/>
       <c s="19" r="D23" t="s"/>
@@ -20642,10 +20642,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="47" r="E44" t="s">
         <v>113</v>
@@ -20673,7 +20673,7 @@
     <row r="46" spans="1:6">
       <c s="19" r="A46" t="s"/>
       <c s="19" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C46" t="n">
         <v>0</v>
@@ -20701,10 +20701,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="19" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C48" t="s"/>
       <c s="19" r="D48" t="s"/>
@@ -20977,10 +20977,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E18" t="s">
         <v>114</v>
@@ -21000,7 +21000,7 @@
     </row>
     <row r="20" spans="1:6">
       <c s="14" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C20">
         <f>(1+C19)^(1/12)-1</f>
@@ -21017,10 +21017,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="14" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -21210,10 +21210,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E44" t="s">
         <v>113</v>
@@ -21239,7 +21239,7 @@
     </row>
     <row r="46" spans="1:6">
       <c s="14" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C46">
         <f>(1+C45)^(1/12)-1</f>
@@ -21260,10 +21260,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="14" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -21496,10 +21496,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E80" t="s">
         <v>114</v>
@@ -21519,7 +21519,7 @@
     </row>
     <row r="82" spans="1:6">
       <c s="14" r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C82">
         <f>(1+C81)^(1/12)-1</f>
@@ -21536,10 +21536,10 @@
     </row>
     <row r="85" spans="1:6">
       <c s="14" r="A85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -21739,10 +21739,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E106" t="s">
         <v>113</v>
@@ -21768,7 +21768,7 @@
     </row>
     <row r="108" spans="1:6">
       <c s="14" r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C108">
         <f>(1+C107)^(1/12)-1</f>
@@ -21789,10 +21789,10 @@
     </row>
     <row r="110" spans="1:6">
       <c s="14" r="A110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -21958,7 +21958,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="129" spans="1:6">
       <c s="144" r="B129" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row customHeight="1" r="130" ht="20.0" spans="1:6">
@@ -22019,10 +22019,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E142" t="s">
         <v>114</v>
@@ -22042,7 +22042,7 @@
     </row>
     <row r="144" spans="1:6">
       <c s="14" r="B144" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C144">
         <f>(1+C143)^(1/12)-1</f>
@@ -22059,10 +22059,10 @@
     </row>
     <row r="147" spans="1:6">
       <c s="14" r="A147" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B147" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -22252,10 +22252,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D168" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E168" t="s">
         <v>113</v>
@@ -22281,7 +22281,7 @@
     </row>
     <row r="170" spans="1:6">
       <c s="14" r="B170" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C170">
         <f>(1+C169)^(1/12)-1</f>
@@ -22302,10 +22302,10 @@
     </row>
     <row r="172" spans="1:6">
       <c s="14" r="A172" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B172" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -22465,7 +22465,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="191" spans="1:6">
       <c s="144" r="B191" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row customHeight="1" r="192" ht="20.0" spans="1:6">
@@ -22526,10 +22526,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C204" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D204" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E204" t="s">
         <v>114</v>
@@ -22549,7 +22549,7 @@
     </row>
     <row r="206" spans="1:6">
       <c s="14" r="B206" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C206">
         <f>(1+C205)^(1/12)-1</f>
@@ -22566,10 +22566,10 @@
     </row>
     <row r="209" spans="1:6">
       <c s="14" r="A209" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B209" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -22759,10 +22759,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C230" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D230" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E230" t="s">
         <v>113</v>
@@ -22788,7 +22788,7 @@
     </row>
     <row r="232" spans="1:6">
       <c s="14" r="B232" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C232">
         <f>(1+C231)^(1/12)-1</f>
@@ -22809,10 +22809,10 @@
     </row>
     <row r="234" spans="1:6">
       <c s="14" r="A234" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B234" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -22972,7 +22972,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="252" spans="1:6">
       <c s="144" r="B252" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row customHeight="1" r="253" ht="20.0" spans="1:6">
@@ -23033,10 +23033,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C265" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D265" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E265" t="s">
         <v>114</v>
@@ -23056,7 +23056,7 @@
     </row>
     <row r="267" spans="1:6">
       <c s="14" r="B267" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C267">
         <f>(1+C266)^(1/12)-1</f>
@@ -23073,10 +23073,10 @@
     </row>
     <row r="270" spans="1:6">
       <c s="14" r="A270" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B270" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -23266,10 +23266,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C291" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D291" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E291" t="s">
         <v>113</v>
@@ -23295,7 +23295,7 @@
     </row>
     <row r="293" spans="1:6">
       <c s="14" r="B293" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C293">
         <f>(1+C292)^(1/12)-1</f>
@@ -23316,10 +23316,10 @@
     </row>
     <row r="295" spans="1:6">
       <c s="14" r="A295" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B295" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -23540,10 +23540,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C327" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D327" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E327" t="s">
         <v>114</v>
@@ -23563,7 +23563,7 @@
     </row>
     <row r="329" spans="1:6">
       <c s="14" r="B329" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C329">
         <f>(1+C328)^(1/12)-1</f>
@@ -23580,10 +23580,10 @@
     </row>
     <row r="332" spans="1:6">
       <c s="14" r="A332" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B332" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -23773,10 +23773,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C353" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D353" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E353" t="s">
         <v>113</v>
@@ -23802,7 +23802,7 @@
     </row>
     <row r="355" spans="1:6">
       <c s="14" r="B355" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C355">
         <f>(1+C354)^(1/12)-1</f>
@@ -23823,10 +23823,10 @@
     </row>
     <row r="357" spans="1:6">
       <c s="14" r="A357" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B357" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -24074,10 +24074,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E18" t="s">
         <v>114</v>
@@ -24097,7 +24097,7 @@
     </row>
     <row r="20" spans="1:6">
       <c s="14" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C20">
         <f>(1+C19)^(1/12)-1</f>
@@ -24114,10 +24114,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="14" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -24307,10 +24307,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E44" t="s">
         <v>113</v>
@@ -24336,7 +24336,7 @@
     </row>
     <row r="46" spans="1:6">
       <c s="14" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C46">
         <f>(1+C45)^(1/12)-1</f>
@@ -24357,10 +24357,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="14" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -24587,10 +24587,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E80" t="s">
         <v>114</v>
@@ -24610,7 +24610,7 @@
     </row>
     <row r="82" spans="1:6">
       <c s="14" r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C82">
         <f>(1+C81)^(1/12)-1</f>
@@ -24627,10 +24627,10 @@
     </row>
     <row r="85" spans="1:6">
       <c s="14" r="A85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -24820,10 +24820,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E106" t="s">
         <v>113</v>
@@ -24849,7 +24849,7 @@
     </row>
     <row r="108" spans="1:6">
       <c s="14" r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C108">
         <f>(1+C107)^(1/12)-1</f>
@@ -24870,10 +24870,10 @@
     </row>
     <row r="110" spans="1:6">
       <c s="14" r="A110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -25039,7 +25039,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="128" spans="1:6">
       <c s="144" r="B128" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row customHeight="1" r="129" ht="20.0" spans="1:6">
@@ -25100,10 +25100,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E141" t="s">
         <v>114</v>
@@ -25123,7 +25123,7 @@
     </row>
     <row r="143" spans="1:6">
       <c s="14" r="B143" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C143">
         <f>(1+C142)^(1/12)-1</f>
@@ -25140,10 +25140,10 @@
     </row>
     <row r="146" spans="1:6">
       <c s="14" r="A146" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B146" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -25333,10 +25333,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D167" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E167" t="s">
         <v>113</v>
@@ -25362,7 +25362,7 @@
     </row>
     <row r="169" spans="1:6">
       <c s="14" r="B169" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C169">
         <f>(1+C168)^(1/12)-1</f>
@@ -25383,10 +25383,10 @@
     </row>
     <row r="171" spans="1:6">
       <c s="14" r="A171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -25546,7 +25546,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="190" spans="1:6">
       <c s="144" r="B190" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row customHeight="1" r="191" ht="20.0" spans="1:6">
@@ -25607,10 +25607,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C203" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D203" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E203" t="s">
         <v>114</v>
@@ -25630,7 +25630,7 @@
     </row>
     <row r="205" spans="1:6">
       <c s="14" r="B205" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C205">
         <f>(1+C204)^(1/12)-1</f>
@@ -25647,10 +25647,10 @@
     </row>
     <row r="208" spans="1:6">
       <c s="14" r="A208" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B208" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -25840,10 +25840,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C229" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D229" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E229" t="s">
         <v>113</v>
@@ -25869,7 +25869,7 @@
     </row>
     <row r="231" spans="1:6">
       <c s="14" r="B231" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C231">
         <f>(1+C230)^(1/12)-1</f>
@@ -25890,10 +25890,10 @@
     </row>
     <row r="233" spans="1:6">
       <c s="14" r="A233" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B233" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -26053,7 +26053,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="252" spans="1:6">
       <c s="144" r="B252" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row customHeight="1" r="253" ht="20.0" spans="1:6">
@@ -26114,10 +26114,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C265" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D265" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E265" t="s">
         <v>114</v>
@@ -26137,7 +26137,7 @@
     </row>
     <row r="267" spans="1:6">
       <c s="14" r="B267" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C267">
         <f>(1+C266)^(1/12)-1</f>
@@ -26154,10 +26154,10 @@
     </row>
     <row r="270" spans="1:6">
       <c s="14" r="A270" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B270" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -26347,10 +26347,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C291" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D291" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E291" t="s">
         <v>113</v>
@@ -26376,7 +26376,7 @@
     </row>
     <row r="293" spans="1:6">
       <c s="14" r="B293" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C293">
         <f>(1+C292)^(1/12)-1</f>
@@ -26397,10 +26397,10 @@
     </row>
     <row r="295" spans="1:6">
       <c s="14" r="A295" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B295" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -26587,7 +26587,7 @@
   <sheetData>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="5" spans="1:6">
       <c s="144" r="B5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row customHeight="1" r="6" ht="20.0" spans="1:6">
@@ -26710,10 +26710,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="44" r="E18" t="s">
         <v>114</v>
@@ -26737,7 +26737,7 @@
     <row r="20" spans="1:6">
       <c s="19" r="A20" t="s"/>
       <c s="19" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C20" t="n">
         <v>0</v>
@@ -26770,10 +26770,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="19" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C23" t="s"/>
       <c s="19" r="D23" t="s"/>
@@ -27020,10 +27020,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="47" r="E44" t="s">
         <v>113</v>
@@ -27051,7 +27051,7 @@
     <row r="46" spans="1:6">
       <c s="19" r="A46" t="s"/>
       <c s="19" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C46" t="n">
         <v>0</v>
@@ -27079,10 +27079,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="19" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C48" t="s"/>
       <c s="19" r="D48" t="s"/>
@@ -27355,10 +27355,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E18" t="s">
         <v>114</v>
@@ -27378,7 +27378,7 @@
     </row>
     <row r="20" spans="1:6">
       <c s="14" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C20">
         <f>(1+C19)^(1/12)-1</f>
@@ -27395,10 +27395,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="14" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -27593,10 +27593,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E45" t="s">
         <v>113</v>
@@ -27622,7 +27622,7 @@
     </row>
     <row r="47" spans="1:6">
       <c s="14" r="B47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C47">
         <f>(1+C46)^(1/12)-1</f>
@@ -27643,10 +27643,10 @@
     </row>
     <row r="49" spans="1:6">
       <c s="14" r="A49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -27826,7 +27826,7 @@
         <v>0.1018</v>
       </c>
       <c s="19" r="D71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -27875,10 +27875,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E81" t="s">
         <v>114</v>
@@ -27898,7 +27898,7 @@
     </row>
     <row r="83" spans="1:6">
       <c s="14" r="B83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C83">
         <f>(1+C82)^(1/12)-1</f>
@@ -27915,10 +27915,10 @@
     </row>
     <row r="86" spans="1:6">
       <c s="14" r="A86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -28113,10 +28113,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E108" t="s">
         <v>113</v>
@@ -28142,7 +28142,7 @@
     </row>
     <row r="110" spans="1:6">
       <c s="14" r="B110" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C110">
         <f>(1+C109)^(1/12)-1</f>
@@ -28163,10 +28163,10 @@
     </row>
     <row r="112" spans="1:6">
       <c s="14" r="A112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -28393,10 +28393,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C143" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E143" t="s">
         <v>114</v>
@@ -28416,7 +28416,7 @@
     </row>
     <row r="145" spans="1:6">
       <c s="14" r="B145" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C145">
         <f>(1+C144)^(1/12)-1</f>
@@ -28433,10 +28433,10 @@
     </row>
     <row r="148" spans="1:6">
       <c s="14" r="A148" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B148" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -28631,10 +28631,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D170" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E170" t="s">
         <v>113</v>
@@ -28660,7 +28660,7 @@
     </row>
     <row r="172" spans="1:6">
       <c s="14" r="B172" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C172">
         <f>(1+C171)^(1/12)-1</f>
@@ -28681,10 +28681,10 @@
     </row>
     <row r="174" spans="1:6">
       <c s="14" r="A174" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B174" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -28903,10 +28903,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C206" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D206" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E206" t="s">
         <v>114</v>
@@ -28926,7 +28926,7 @@
     </row>
     <row r="208" spans="1:6">
       <c s="14" r="B208" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C208">
         <f>(1+C207)^(1/12)-1</f>
@@ -28943,10 +28943,10 @@
     </row>
     <row r="211" spans="1:6">
       <c s="14" r="A211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B211" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -29141,10 +29141,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C233" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D233" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E233" t="s">
         <v>113</v>
@@ -29170,7 +29170,7 @@
     </row>
     <row r="235" spans="1:6">
       <c s="14" r="B235" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C235">
         <f>(1+C234)^(1/12)-1</f>
@@ -29191,10 +29191,10 @@
     </row>
     <row r="237" spans="1:6">
       <c s="14" r="A237" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B237" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -29354,7 +29354,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="256" spans="1:6">
       <c s="144" r="B256" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row customHeight="1" r="257" ht="20.0" spans="1:6">
@@ -29415,10 +29415,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C269" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D269" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E269" t="s">
         <v>114</v>
@@ -29438,7 +29438,7 @@
     </row>
     <row r="271" spans="1:6">
       <c s="14" r="B271" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C271">
         <f>(1+C270)^(1/12)-1</f>
@@ -29455,10 +29455,10 @@
     </row>
     <row r="274" spans="1:6">
       <c s="14" r="A274" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B274" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -29653,10 +29653,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C296" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D296" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E296" t="s">
         <v>113</v>
@@ -29682,7 +29682,7 @@
     </row>
     <row r="298" spans="1:6">
       <c s="14" r="B298" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C298">
         <f>(1+C297)^(1/12)-1</f>
@@ -29703,10 +29703,10 @@
     </row>
     <row r="300" spans="1:6">
       <c s="14" r="A300" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B300" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -29866,7 +29866,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="320" spans="1:6">
       <c s="144" r="B320" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row customHeight="1" r="321" ht="20.0" spans="1:6">
@@ -29927,10 +29927,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C333" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D333" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E333" t="s">
         <v>114</v>
@@ -29950,7 +29950,7 @@
     </row>
     <row r="335" spans="1:6">
       <c s="14" r="B335" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C335">
         <f>(1+C334)^(1/12)-1</f>
@@ -29967,10 +29967,10 @@
     </row>
     <row r="338" spans="1:6">
       <c s="14" r="A338" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B338" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -30165,10 +30165,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C360" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D360" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E360" t="s">
         <v>113</v>
@@ -30194,7 +30194,7 @@
     </row>
     <row r="362" spans="1:6">
       <c s="14" r="B362" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C362">
         <f>(1+C361)^(1/12)-1</f>
@@ -30215,10 +30215,10 @@
     </row>
     <row r="364" spans="1:6">
       <c s="14" r="A364" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B364" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -30473,10 +30473,10 @@
         <v>73</v>
       </c>
       <c s="78" r="D7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="78" r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="78" r="F7" t="s">
         <v>80</v>
@@ -30485,13 +30485,13 @@
         <v>104</v>
       </c>
       <c s="78" r="H7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="78" r="I7" t="s">
         <v>306</v>
       </c>
       <c s="78" r="J7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="78" r="K7" t="s">
         <v>70</v>
@@ -30503,7 +30503,7 @@
         <v>105</v>
       </c>
       <c s="78" r="N7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="78" r="O7" t="s">
         <v>47</v>
@@ -30515,10 +30515,10 @@
         <v>148</v>
       </c>
       <c s="78" r="R7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="78" r="S7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="78" r="T7" t="s">
         <v>150</v>
@@ -30527,7 +30527,7 @@
         <v>302</v>
       </c>
       <c s="78" r="V7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="78" r="W7" t="s">
         <v>115</v>
@@ -30536,7 +30536,7 @@
         <v>307</v>
       </c>
       <c s="78" r="Y7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="78" r="Z7" t="s">
         <v>94</v>
@@ -30548,7 +30548,7 @@
         <v>147</v>
       </c>
       <c s="78" r="AC7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="78" r="AD7" t="s">
         <v>20</v>
@@ -30557,7 +30557,7 @@
         <v>301</v>
       </c>
       <c s="78" r="AF7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="78" r="AG7" t="s">
         <v>154</v>
@@ -30569,28 +30569,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL7" t="s">
         <v>168</v>
       </c>
       <c s="78" r="AM7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="78" r="AN7" t="s">
         <v>143</v>
       </c>
       <c s="78" r="AO7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="78" r="AP7" t="s">
         <v>175</v>
       </c>
       <c s="78" r="AQ7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="78" r="AR7" t="s">
         <v>313</v>
@@ -30599,7 +30599,7 @@
         <v>120</v>
       </c>
       <c s="78" r="AT7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="78" r="AU7" t="s">
         <v>153</v>
@@ -30626,7 +30626,7 @@
         <v>66</v>
       </c>
       <c s="78" r="BC7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="78" r="BD7" t="s">
         <v>312</v>
@@ -30641,10 +30641,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ7" t="s">
         <v>136</v>
@@ -30926,10 +30926,10 @@
         <v>73</v>
       </c>
       <c s="78" r="D11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="78" r="E11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="78" r="F11" t="s">
         <v>80</v>
@@ -30938,13 +30938,13 @@
         <v>104</v>
       </c>
       <c s="78" r="H11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="78" r="I11" t="s">
         <v>306</v>
       </c>
       <c s="78" r="J11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="78" r="K11" t="s">
         <v>70</v>
@@ -30956,7 +30956,7 @@
         <v>105</v>
       </c>
       <c s="78" r="N11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="78" r="O11" t="s">
         <v>47</v>
@@ -30968,10 +30968,10 @@
         <v>148</v>
       </c>
       <c s="78" r="R11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="78" r="S11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="78" r="T11" t="s">
         <v>150</v>
@@ -30980,7 +30980,7 @@
         <v>302</v>
       </c>
       <c s="78" r="V11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="78" r="W11" t="s">
         <v>115</v>
@@ -30989,7 +30989,7 @@
         <v>307</v>
       </c>
       <c s="78" r="Y11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="78" r="Z11" t="s">
         <v>94</v>
@@ -31001,7 +31001,7 @@
         <v>147</v>
       </c>
       <c s="78" r="AC11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="78" r="AD11" t="s">
         <v>20</v>
@@ -31010,7 +31010,7 @@
         <v>301</v>
       </c>
       <c s="78" r="AF11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="78" r="AG11" t="s">
         <v>154</v>
@@ -31022,28 +31022,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL11" t="s">
         <v>168</v>
       </c>
       <c s="78" r="AM11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="78" r="AN11" t="s">
         <v>143</v>
       </c>
       <c s="78" r="AO11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="78" r="AP11" t="s">
         <v>175</v>
       </c>
       <c s="78" r="AQ11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="78" r="AR11" t="s">
         <v>313</v>
@@ -31052,7 +31052,7 @@
         <v>120</v>
       </c>
       <c s="78" r="AT11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="78" r="AU11" t="s">
         <v>153</v>
@@ -31079,7 +31079,7 @@
         <v>66</v>
       </c>
       <c s="78" r="BC11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="78" r="BD11" t="s">
         <v>312</v>
@@ -31094,10 +31094,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ11" t="s">
         <v>136</v>
@@ -31379,10 +31379,10 @@
         <v>171</v>
       </c>
       <c s="78" r="D15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="78" r="E15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="78" r="F15" t="s">
         <v>80</v>
@@ -31391,13 +31391,13 @@
         <v>104</v>
       </c>
       <c s="78" r="H15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="78" r="I15" t="s">
         <v>306</v>
       </c>
       <c s="78" r="J15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="78" r="K15" t="s">
         <v>70</v>
@@ -31409,7 +31409,7 @@
         <v>105</v>
       </c>
       <c s="78" r="N15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="78" r="O15" t="s">
         <v>47</v>
@@ -31421,10 +31421,10 @@
         <v>148</v>
       </c>
       <c s="78" r="R15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="78" r="S15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="78" r="T15" t="s">
         <v>150</v>
@@ -31433,7 +31433,7 @@
         <v>302</v>
       </c>
       <c s="78" r="V15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="78" r="W15" t="s">
         <v>115</v>
@@ -31442,7 +31442,7 @@
         <v>307</v>
       </c>
       <c s="78" r="Y15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="78" r="Z15" t="s">
         <v>94</v>
@@ -31454,7 +31454,7 @@
         <v>147</v>
       </c>
       <c s="78" r="AC15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="78" r="AD15" t="s">
         <v>20</v>
@@ -31463,7 +31463,7 @@
         <v>301</v>
       </c>
       <c s="78" r="AF15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="78" r="AG15" t="s">
         <v>154</v>
@@ -31475,28 +31475,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL15" t="s">
         <v>168</v>
       </c>
       <c s="78" r="AM15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="78" r="AN15" t="s">
         <v>143</v>
       </c>
       <c s="78" r="AO15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="78" r="AP15" t="s">
         <v>175</v>
       </c>
       <c s="78" r="AQ15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="78" r="AR15" t="s">
         <v>313</v>
@@ -31505,7 +31505,7 @@
         <v>120</v>
       </c>
       <c s="78" r="AT15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="78" r="AU15" t="s">
         <v>153</v>
@@ -31532,7 +31532,7 @@
         <v>66</v>
       </c>
       <c s="78" r="BC15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="78" r="BD15" t="s">
         <v>312</v>
@@ -31547,10 +31547,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ15" t="s">
         <v>136</v>
@@ -31832,10 +31832,10 @@
         <v>171</v>
       </c>
       <c s="78" r="D19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="78" r="E19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="78" r="F19" t="s">
         <v>80</v>
@@ -31844,13 +31844,13 @@
         <v>104</v>
       </c>
       <c s="78" r="H19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="78" r="I19" t="s">
         <v>306</v>
       </c>
       <c s="78" r="J19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="78" r="K19" t="s">
         <v>70</v>
@@ -31862,7 +31862,7 @@
         <v>105</v>
       </c>
       <c s="78" r="N19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="78" r="O19" t="s">
         <v>47</v>
@@ -31874,10 +31874,10 @@
         <v>148</v>
       </c>
       <c s="78" r="R19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="78" r="S19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="78" r="T19" t="s">
         <v>150</v>
@@ -31886,7 +31886,7 @@
         <v>302</v>
       </c>
       <c s="78" r="V19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="78" r="W19" t="s">
         <v>115</v>
@@ -31895,7 +31895,7 @@
         <v>307</v>
       </c>
       <c s="78" r="Y19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="78" r="Z19" t="s">
         <v>94</v>
@@ -31907,7 +31907,7 @@
         <v>147</v>
       </c>
       <c s="78" r="AC19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="78" r="AD19" t="s">
         <v>20</v>
@@ -31916,7 +31916,7 @@
         <v>301</v>
       </c>
       <c s="78" r="AF19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="78" r="AG19" t="s">
         <v>154</v>
@@ -31928,28 +31928,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL19" t="s">
         <v>168</v>
       </c>
       <c s="78" r="AM19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="78" r="AN19" t="s">
         <v>143</v>
       </c>
       <c s="78" r="AO19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="78" r="AP19" t="s">
         <v>175</v>
       </c>
       <c s="78" r="AQ19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="78" r="AR19" t="s">
         <v>313</v>
@@ -31958,7 +31958,7 @@
         <v>120</v>
       </c>
       <c s="78" r="AT19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="78" r="AU19" t="s">
         <v>153</v>
@@ -31985,7 +31985,7 @@
         <v>66</v>
       </c>
       <c s="78" r="BC19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="78" r="BD19" t="s">
         <v>312</v>
@@ -32000,10 +32000,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ19" t="s">
         <v>136</v>
@@ -32285,10 +32285,10 @@
         <v>73</v>
       </c>
       <c s="78" r="D24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="78" r="E24" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="78" r="F24" t="s">
         <v>80</v>
@@ -32297,13 +32297,13 @@
         <v>104</v>
       </c>
       <c s="78" r="H24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="78" r="I24" t="s">
         <v>306</v>
       </c>
       <c s="78" r="J24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="78" r="K24" t="s">
         <v>70</v>
@@ -32315,7 +32315,7 @@
         <v>105</v>
       </c>
       <c s="78" r="N24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="78" r="O24" t="s">
         <v>47</v>
@@ -32327,10 +32327,10 @@
         <v>148</v>
       </c>
       <c s="78" r="R24" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="78" r="S24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="78" r="T24" t="s">
         <v>150</v>
@@ -32339,7 +32339,7 @@
         <v>302</v>
       </c>
       <c s="78" r="V24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="78" r="W24" t="s">
         <v>115</v>
@@ -32348,7 +32348,7 @@
         <v>307</v>
       </c>
       <c s="78" r="Y24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="78" r="Z24" t="s">
         <v>94</v>
@@ -32360,7 +32360,7 @@
         <v>147</v>
       </c>
       <c s="78" r="AC24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="78" r="AD24" t="s">
         <v>20</v>
@@ -32369,7 +32369,7 @@
         <v>301</v>
       </c>
       <c s="78" r="AF24" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="78" r="AG24" t="s">
         <v>154</v>
@@ -32381,28 +32381,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL24" t="s">
         <v>168</v>
       </c>
       <c s="78" r="AM24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="78" r="AN24" t="s">
         <v>143</v>
       </c>
       <c s="78" r="AO24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="78" r="AP24" t="s">
         <v>175</v>
       </c>
       <c s="78" r="AQ24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="78" r="AR24" t="s">
         <v>313</v>
@@ -32411,7 +32411,7 @@
         <v>120</v>
       </c>
       <c s="78" r="AT24" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="78" r="AU24" t="s">
         <v>153</v>
@@ -32438,7 +32438,7 @@
         <v>66</v>
       </c>
       <c s="78" r="BC24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="78" r="BD24" t="s">
         <v>312</v>
@@ -32453,10 +32453,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH24" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ24" t="s">
         <v>136</v>
@@ -32476,7 +32476,7 @@
     </row>
     <row r="25" spans="1:66">
       <c s="78" r="C25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="80" r="X25" t="s"/>
       <c s="80" r="Y25" t="s"/>
@@ -35854,10 +35854,10 @@
         <v>171</v>
       </c>
       <c s="78" r="D41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="78" r="E41" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="78" r="F41" t="s">
         <v>80</v>
@@ -35866,13 +35866,13 @@
         <v>104</v>
       </c>
       <c s="78" r="H41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="78" r="I41" t="s">
         <v>306</v>
       </c>
       <c s="78" r="J41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="78" r="K41" t="s">
         <v>70</v>
@@ -35884,7 +35884,7 @@
         <v>105</v>
       </c>
       <c s="78" r="N41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="78" r="O41" t="s">
         <v>47</v>
@@ -35896,10 +35896,10 @@
         <v>148</v>
       </c>
       <c s="78" r="R41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="78" r="S41" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="78" r="T41" t="s">
         <v>150</v>
@@ -35908,7 +35908,7 @@
         <v>302</v>
       </c>
       <c s="78" r="V41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="78" r="W41" t="s">
         <v>115</v>
@@ -35917,7 +35917,7 @@
         <v>307</v>
       </c>
       <c s="78" r="Y41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="78" r="Z41" t="s">
         <v>94</v>
@@ -35929,7 +35929,7 @@
         <v>147</v>
       </c>
       <c s="78" r="AC41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="78" r="AD41" t="s">
         <v>20</v>
@@ -35938,7 +35938,7 @@
         <v>301</v>
       </c>
       <c s="78" r="AF41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="78" r="AG41" t="s">
         <v>154</v>
@@ -35950,28 +35950,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL41" t="s">
         <v>168</v>
       </c>
       <c s="78" r="AM41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="78" r="AN41" t="s">
         <v>143</v>
       </c>
       <c s="78" r="AO41" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="78" r="AP41" t="s">
         <v>175</v>
       </c>
       <c s="78" r="AQ41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="78" r="AR41" t="s">
         <v>313</v>
@@ -35980,7 +35980,7 @@
         <v>120</v>
       </c>
       <c s="78" r="AT41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="78" r="AU41" t="s">
         <v>153</v>
@@ -36007,7 +36007,7 @@
         <v>66</v>
       </c>
       <c s="78" r="BC41" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="78" r="BD41" t="s">
         <v>312</v>
@@ -36022,10 +36022,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH41" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ41" t="s">
         <v>136</v>
@@ -36045,7 +36045,7 @@
     </row>
     <row r="42" spans="1:66">
       <c s="78" r="C42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:66">
@@ -39391,15 +39391,15 @@
     </row>
     <row r="57" spans="1:66">
       <c s="78" r="C57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:66">
       <c s="78" r="D58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="78" r="E58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="78" r="F58" t="s">
         <v>80</v>
@@ -39408,13 +39408,13 @@
         <v>104</v>
       </c>
       <c s="78" r="H58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="78" r="I58" t="s">
         <v>306</v>
       </c>
       <c s="78" r="J58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="78" r="K58" t="s">
         <v>70</v>
@@ -39426,7 +39426,7 @@
         <v>105</v>
       </c>
       <c s="78" r="N58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="78" r="O58" t="s">
         <v>47</v>
@@ -39438,10 +39438,10 @@
         <v>148</v>
       </c>
       <c s="78" r="R58" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="78" r="S58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="78" r="T58" t="s">
         <v>150</v>
@@ -39450,7 +39450,7 @@
         <v>302</v>
       </c>
       <c s="78" r="V58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="78" r="W58" t="s">
         <v>115</v>
@@ -39459,7 +39459,7 @@
         <v>307</v>
       </c>
       <c s="78" r="Y58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="78" r="Z58" t="s">
         <v>94</v>
@@ -39471,7 +39471,7 @@
         <v>147</v>
       </c>
       <c s="78" r="AC58" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="78" r="AD58" t="s">
         <v>20</v>
@@ -39480,7 +39480,7 @@
         <v>301</v>
       </c>
       <c s="78" r="AF58" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="78" r="AG58" t="s">
         <v>154</v>
@@ -39492,28 +39492,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ58" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL58" t="s">
         <v>168</v>
       </c>
       <c s="78" r="AM58" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="78" r="AN58" t="s">
         <v>143</v>
       </c>
       <c s="78" r="AO58" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="78" r="AP58" t="s">
         <v>175</v>
       </c>
       <c s="78" r="AQ58" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="78" r="AR58" t="s">
         <v>313</v>
@@ -39522,7 +39522,7 @@
         <v>120</v>
       </c>
       <c s="78" r="AT58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="78" r="AU58" t="s">
         <v>153</v>
@@ -39549,7 +39549,7 @@
         <v>66</v>
       </c>
       <c s="78" r="BC58" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="78" r="BD58" t="s">
         <v>312</v>
@@ -39564,10 +39564,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH58" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ58" t="s">
         <v>136</v>
@@ -39841,16 +39841,16 @@
     </row>
     <row r="62" spans="1:66">
       <c s="78" r="C62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:66">
       <c s="82" r="C63" t="s"/>
       <c s="82" r="D63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c s="82" r="E63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c s="82" r="F63" t="s">
         <v>80</v>
@@ -39859,13 +39859,13 @@
         <v>104</v>
       </c>
       <c s="82" r="H63" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c s="82" r="I63" t="s">
         <v>306</v>
       </c>
       <c s="82" r="J63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c s="82" r="K63" t="s">
         <v>70</v>
@@ -39877,7 +39877,7 @@
         <v>105</v>
       </c>
       <c s="82" r="N63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c s="82" r="O63" t="s">
         <v>47</v>
@@ -39889,10 +39889,10 @@
         <v>148</v>
       </c>
       <c s="82" r="R63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c s="82" r="S63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c s="82" r="T63" t="s">
         <v>150</v>
@@ -39901,7 +39901,7 @@
         <v>302</v>
       </c>
       <c s="82" r="V63" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c s="82" r="W63" t="s">
         <v>115</v>
@@ -39910,7 +39910,7 @@
         <v>307</v>
       </c>
       <c s="82" r="Y63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c s="82" r="Z63" t="s">
         <v>94</v>
@@ -39922,7 +39922,7 @@
         <v>147</v>
       </c>
       <c s="82" r="AC63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c s="82" r="AD63" t="s">
         <v>20</v>
@@ -39931,7 +39931,7 @@
         <v>301</v>
       </c>
       <c s="82" r="AF63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c s="82" r="AG63" t="s">
         <v>154</v>
@@ -39943,28 +39943,28 @@
         <v>161</v>
       </c>
       <c s="78" r="AJ63" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c s="78" r="AK63" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c s="78" r="AL63" t="s">
         <v>168</v>
       </c>
       <c s="82" r="AM63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c s="82" r="AN63" t="s">
         <v>143</v>
       </c>
       <c s="82" r="AO63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c s="82" r="AP63" t="s">
         <v>175</v>
       </c>
       <c s="82" r="AQ63" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c s="82" r="AR63" t="s">
         <v>313</v>
@@ -39973,7 +39973,7 @@
         <v>120</v>
       </c>
       <c s="82" r="AT63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c s="82" r="AU63" t="s">
         <v>153</v>
@@ -40000,7 +40000,7 @@
         <v>66</v>
       </c>
       <c s="82" r="BC63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c s="82" r="BD63" t="s">
         <v>312</v>
@@ -40015,10 +40015,10 @@
         <v>89</v>
       </c>
       <c s="78" r="BH63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c s="78" r="BI63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c s="78" r="BJ63" t="s">
         <v>136</v>
@@ -40357,7 +40357,7 @@
         <v>39</v>
       </c>
       <c s="89" r="I8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="90" r="J8" t="s"/>
     </row>
@@ -40521,7 +40521,7 @@
     </row>
     <row r="40" spans="1:9">
       <c s="88" r="E40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -40531,92 +40531,92 @@
     </row>
     <row r="42" spans="1:9">
       <c s="88" r="E42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c s="88" r="E43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c s="88" r="E44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c s="88" r="E45" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c s="88" r="E46" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c s="88" r="E47" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c s="88" r="E48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c s="88" r="E49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c s="88" r="E50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c s="88" r="E51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c s="88" r="E52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c s="88" r="E53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c s="88" r="E54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c s="88" r="E55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c s="88" r="E56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c s="88" r="E57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c s="88" r="E58" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c s="88" r="E59" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -40659,12 +40659,12 @@
     </row>
     <row r="67" spans="1:9">
       <c s="88" r="E67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row customHeight="1" r="68" ht="13.0" spans="1:9">
       <c s="91" r="E68" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -40707,7 +40707,7 @@
         <v>59</v>
       </c>
       <c s="187" r="C1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c s="28" r="D1" t="s"/>
     </row>
@@ -40769,7 +40769,7 @@
       </c>
       <c s="92" r="D10" t="s"/>
       <c s="189" r="F10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row customHeight="1" r="11" ht="14.0" spans="1:14">
@@ -40783,7 +40783,7 @@
     </row>
     <row r="12" spans="1:14">
       <c s="6" r="B12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c s="3" r="C12" t="s"/>
       <c s="191" r="F12" t="s">
@@ -40793,7 +40793,7 @@
     </row>
     <row customHeight="1" r="13" ht="24.0" spans="1:14">
       <c s="265" r="B13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c s="267" r="C13" t="s">
         <v>325</v>
@@ -40859,16 +40859,16 @@
     </row>
     <row r="19" spans="1:14">
       <c s="6" r="B19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c s="7" r="C19" t="s"/>
     </row>
     <row r="20" spans="1:14">
       <c s="270" r="B20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c s="267" r="C20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c s="99" r="D20" t="s">
         <v>132</v>
@@ -40890,7 +40890,7 @@
     </row>
     <row r="23" spans="1:14">
       <c s="6" r="B23" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c s="3" r="D23" t="s"/>
     </row>
@@ -40955,7 +40955,7 @@
     </row>
     <row r="29" spans="1:14">
       <c s="6" r="B29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row customHeight="1" r="30" ht="13.0" spans="1:14">
@@ -41010,7 +41010,7 @@
       <c s="76" r="B38" t="s"/>
       <c s="77" r="C38" t="s"/>
       <c s="119" r="E38" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="130" r="F38">
         <f>K79</f>
@@ -41019,31 +41019,31 @@
     </row>
     <row customHeight="1" r="39" ht="14.0" spans="1:14">
       <c s="127" r="B39" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c s="128" r="C39">
         <f>F57</f>
         <v/>
       </c>
       <c s="98" r="E39" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="131" r="F39">
         <f>SUM(F57:F62)</f>
         <v/>
       </c>
       <c s="276" r="G39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row customHeight="1" r="40" ht="14.0" spans="1:14">
       <c s="95" r="B40" t="s"/>
       <c s="97" r="C40" t="s"/>
       <c s="276" r="D40" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c s="98" r="E40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="131" r="F40">
         <f>SUM(F63:F68)</f>
@@ -41053,7 +41053,7 @@
     </row>
     <row customHeight="1" r="41" ht="14.0" spans="1:14">
       <c s="95" r="B41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="96" r="C41">
         <f>SUM(F57:F62)</f>
@@ -41061,7 +41061,7 @@
       </c>
       <c s="276" r="D41" t="s"/>
       <c s="119" r="E41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="130" r="F41">
         <f>SUM(F57:F68)</f>
@@ -41084,7 +41084,7 @@
     </row>
     <row customHeight="1" r="43" ht="15.0" spans="1:14">
       <c s="95" r="B43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="96" r="C43">
         <f>SUM(F63:F68)</f>
@@ -41098,21 +41098,21 @@
       <c s="97" r="C44" t="s"/>
       <c s="276" r="D44" t="s"/>
       <c s="117" r="E44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c s="124" r="F44" t="s"/>
       <c s="277" r="G44" t="s"/>
     </row>
     <row customHeight="1" r="45" ht="14.0" spans="1:14">
       <c s="127" r="B45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="128" r="C45">
         <f>SUM(F57:F68)</f>
         <v/>
       </c>
       <c s="119" r="E45" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c s="130" r="F45">
         <f>K101</f>
@@ -41125,14 +41125,14 @@
       <c s="95" r="B46" t="s"/>
       <c s="97" r="C46" t="s"/>
       <c s="98" r="E46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c s="129" r="F46">
         <f>SUM(K101:K106)</f>
         <v/>
       </c>
       <c s="276" r="G46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row customHeight="1" r="47" ht="14.0" spans="1:14">
@@ -41144,7 +41144,7 @@
         <v/>
       </c>
       <c s="98" r="E47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c s="129" r="F47">
         <f>SUM(K107:K112)</f>
@@ -41155,7 +41155,7 @@
     </row>
     <row r="48" spans="1:14">
       <c s="119" r="E48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c s="130" r="F48">
         <f>SUM(K101:K112)</f>
@@ -41204,16 +41204,16 @@
     </row>
     <row r="56" spans="1:14">
       <c s="3" r="A56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="3" r="B56" t="s">
         <v>100</v>
       </c>
       <c s="3" r="C56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="3" r="D56" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="3" r="E56" t="s">
         <v>300</v>
@@ -41653,7 +41653,7 @@
     </row>
     <row customHeight="1" r="78" ht="26.0" spans="1:14">
       <c s="3" r="A78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="114" r="B78" t="s">
         <v>85</v>
@@ -41674,10 +41674,10 @@
         <v>100</v>
       </c>
       <c s="3" r="H78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="3" r="I78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="3" r="J78" t="s">
         <v>300</v>
@@ -42312,7 +42312,7 @@
     </row>
     <row customHeight="1" r="100" ht="26.0" spans="1:14">
       <c s="3" r="A100" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="114" r="B100" t="s">
         <v>85</v>
@@ -42333,10 +42333,10 @@
         <v>100</v>
       </c>
       <c s="3" r="H100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c s="3" r="I100" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c s="3" r="J100" t="s">
         <v>300</v>
@@ -42950,7 +42950,7 @@
     </row>
     <row customHeight="1" r="4" ht="23.0" spans="1:13">
       <c s="295" r="B4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c s="295" r="C4" t="s"/>
       <c s="295" r="D4" t="s"/>
@@ -42982,7 +42982,7 @@
       </c>
       <c s="294" r="F5" t="s"/>
       <c s="294" r="G5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="294" r="H5" t="s"/>
       <c s="150" r="I5" t="s"/>
@@ -43004,10 +43004,10 @@
       <c s="154" r="C6" t="s"/>
       <c s="154" r="D6" t="s"/>
       <c s="155" r="E6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="156" r="F6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="157" r="G6" t="s">
         <v>95</v>
@@ -43017,7 +43017,7 @@
       </c>
       <c s="154" r="I6" t="s"/>
       <c s="201" r="K6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c s="201" r="L6" t="s">
         <v>318</v>
@@ -43029,7 +43029,7 @@
     <row customHeight="1" r="7" ht="15.0" spans="1:13">
       <c s="147" r="B7" t="s"/>
       <c s="177" r="C7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="178" r="D7">
         <f>SUM(D28,D49)</f>
@@ -43061,7 +43061,7 @@
     <row customHeight="1" r="8" ht="15.0" spans="1:13">
       <c s="147" r="B8" t="s"/>
       <c s="177" r="C8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="178" r="D8">
         <f si="0" ref="D8:D18" t="shared">SUM(D29,D50)</f>
@@ -43093,7 +43093,7 @@
     <row customHeight="1" r="9" ht="15.0" spans="1:13">
       <c s="147" r="B9" t="s"/>
       <c s="177" r="C9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="178" r="D9">
         <f si="0" t="shared"/>
@@ -43123,7 +43123,7 @@
     <row customHeight="1" r="10" ht="15.0" spans="1:13">
       <c s="147" r="B10" t="s"/>
       <c s="177" r="C10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="178" r="D10">
         <f si="0" t="shared"/>
@@ -43159,7 +43159,7 @@
     <row customHeight="1" r="11" ht="15.0" spans="1:13">
       <c s="147" r="B11" t="s"/>
       <c s="177" r="C11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="178" r="D11">
         <f si="0" t="shared"/>
@@ -43193,7 +43193,7 @@
     <row customHeight="1" r="12" ht="15.0" spans="1:13">
       <c s="147" r="B12" t="s"/>
       <c s="177" r="C12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="178" r="D12">
         <f si="0" t="shared"/>
@@ -43227,7 +43227,7 @@
     <row customHeight="1" r="13" ht="15.0" spans="1:13">
       <c s="147" r="B13" t="s"/>
       <c s="177" r="C13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="178" r="D13">
         <f si="0" t="shared"/>
@@ -43261,7 +43261,7 @@
     <row customHeight="1" r="14" ht="15.0" spans="1:13">
       <c s="147" r="B14" t="s"/>
       <c s="177" r="C14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="178" r="D14">
         <f si="0" t="shared"/>
@@ -43295,7 +43295,7 @@
     <row customHeight="1" r="15" ht="15.0" spans="1:13">
       <c s="147" r="B15" t="s"/>
       <c s="177" r="C15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="178" r="D15">
         <f si="0" t="shared"/>
@@ -43329,7 +43329,7 @@
     <row customHeight="1" r="16" ht="15.0" spans="1:13">
       <c s="147" r="B16" t="s"/>
       <c s="177" r="C16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="178" r="D16">
         <f si="0" t="shared"/>
@@ -43363,7 +43363,7 @@
     <row customHeight="1" r="17" ht="15.0" spans="1:13">
       <c s="147" r="B17" t="s"/>
       <c s="177" r="C17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="178" r="D17">
         <f si="0" t="shared"/>
@@ -43397,7 +43397,7 @@
     <row customHeight="1" r="18" ht="15.0" spans="1:13">
       <c s="147" r="B18" t="s"/>
       <c s="177" r="C18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="178" r="D18">
         <f si="0" t="shared"/>
@@ -43581,7 +43581,7 @@
       </c>
       <c s="294" r="F26" t="s"/>
       <c s="294" r="G26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="294" r="H26" t="s"/>
       <c s="147" r="I26" t="s"/>
@@ -43603,10 +43603,10 @@
       <c s="154" r="C27" t="s"/>
       <c s="154" r="D27" t="s"/>
       <c s="155" r="E27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="156" r="F27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="157" r="G27" t="s">
         <v>95</v>
@@ -43628,7 +43628,7 @@
     <row customHeight="1" r="28" ht="15.0" spans="1:13">
       <c s="147" r="B28" t="s"/>
       <c s="177" r="C28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="178" r="D28">
         <f>Calculator!G79</f>
@@ -43660,7 +43660,7 @@
     <row customHeight="1" r="29" ht="15.0" spans="1:13">
       <c s="147" r="B29" t="s"/>
       <c s="177" r="C29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="178" r="D29">
         <f>Calculator!G80</f>
@@ -43692,7 +43692,7 @@
     <row customHeight="1" r="30" ht="15.0" spans="1:13">
       <c s="147" r="B30" t="s"/>
       <c s="177" r="C30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="178" r="D30">
         <f>Calculator!G81</f>
@@ -43722,7 +43722,7 @@
     <row customHeight="1" r="31" ht="15.0" spans="1:13">
       <c s="147" r="B31" t="s"/>
       <c s="177" r="C31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="178" r="D31">
         <f>Calculator!G82</f>
@@ -43754,7 +43754,7 @@
     <row customHeight="1" r="32" ht="15.0" spans="1:13">
       <c s="147" r="B32" t="s"/>
       <c s="177" r="C32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="178" r="D32">
         <f>Calculator!G83</f>
@@ -43780,7 +43780,7 @@
     <row customHeight="1" r="33" ht="15.0" spans="1:13">
       <c s="147" r="B33" t="s"/>
       <c s="177" r="C33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="178" r="D33">
         <f>Calculator!G84</f>
@@ -43806,7 +43806,7 @@
     <row customHeight="1" r="34" ht="15.0" spans="1:13">
       <c s="147" r="B34" t="s"/>
       <c s="177" r="C34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="178" r="D34">
         <f>Calculator!G85</f>
@@ -43832,7 +43832,7 @@
     <row customHeight="1" r="35" ht="15.0" spans="1:13">
       <c s="147" r="B35" t="s"/>
       <c s="177" r="C35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="178" r="D35">
         <f>Calculator!G86</f>
@@ -43858,7 +43858,7 @@
     <row customHeight="1" r="36" ht="15.0" spans="1:13">
       <c s="147" r="B36" t="s"/>
       <c s="177" r="C36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="178" r="D36">
         <f>Calculator!G87</f>
@@ -43884,7 +43884,7 @@
     <row customHeight="1" r="37" ht="15.0" spans="1:13">
       <c s="147" r="B37" t="s"/>
       <c s="177" r="C37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="178" r="D37">
         <f>Calculator!G88</f>
@@ -43910,7 +43910,7 @@
     <row customHeight="1" r="38" ht="15.0" spans="1:13">
       <c s="147" r="B38" t="s"/>
       <c s="177" r="C38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="178" r="D38">
         <f>Calculator!G89</f>
@@ -43936,7 +43936,7 @@
     <row customHeight="1" r="39" ht="15.0" spans="1:13">
       <c s="147" r="B39" t="s"/>
       <c s="177" r="C39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="178" r="D39">
         <f>Calculator!G90</f>
@@ -44029,7 +44029,7 @@
       </c>
       <c s="294" r="F47" t="s"/>
       <c s="294" r="G47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c s="294" r="H47" t="s"/>
       <c s="294" r="J47" t="s">
@@ -44047,10 +44047,10 @@
       <c s="154" r="C48" t="s"/>
       <c s="154" r="D48" t="s"/>
       <c s="155" r="E48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c s="156" r="F48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c s="157" r="G48" t="s">
         <v>95</v>
@@ -44069,7 +44069,7 @@
     <row customHeight="1" r="49" ht="15.0" spans="1:13">
       <c s="147" r="B49" t="s"/>
       <c s="177" r="C49" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c s="178" r="D49">
         <f>Calculator!G101</f>
@@ -44098,7 +44098,7 @@
     <row customHeight="1" r="50" ht="15.0" spans="1:13">
       <c s="147" r="B50" t="s"/>
       <c s="177" r="C50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c s="178" r="D50">
         <f>Calculator!G102</f>
@@ -44127,7 +44127,7 @@
     <row customHeight="1" r="51" ht="15.0" spans="1:13">
       <c s="147" r="B51" t="s"/>
       <c s="177" r="C51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c s="178" r="D51">
         <f>Calculator!G103</f>
@@ -44157,7 +44157,7 @@
     <row customHeight="1" r="52" ht="15.0" spans="1:13">
       <c s="147" r="B52" t="s"/>
       <c s="177" r="C52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c s="178" r="D52">
         <f>Calculator!G104</f>
@@ -44189,7 +44189,7 @@
     <row customHeight="1" r="53" ht="15.0" spans="1:13">
       <c s="147" r="B53" t="s"/>
       <c s="177" r="C53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c s="178" r="D53">
         <f>Calculator!G105</f>
@@ -44215,7 +44215,7 @@
     <row customHeight="1" r="54" ht="15.0" spans="1:13">
       <c s="147" r="B54" t="s"/>
       <c s="177" r="C54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c s="178" r="D54">
         <f>Calculator!G106</f>
@@ -44241,7 +44241,7 @@
     <row customHeight="1" r="55" ht="15.0" spans="1:13">
       <c s="147" r="B55" t="s"/>
       <c s="177" r="C55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c s="178" r="D55">
         <f>Calculator!G107</f>
@@ -44267,7 +44267,7 @@
     <row customHeight="1" r="56" ht="15.0" spans="1:13">
       <c s="147" r="B56" t="s"/>
       <c s="177" r="C56" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c s="178" r="D56">
         <f>Calculator!G108</f>
@@ -44293,7 +44293,7 @@
     <row customHeight="1" r="57" ht="15.0" spans="1:13">
       <c s="147" r="B57" t="s"/>
       <c s="177" r="C57" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c s="178" r="D57">
         <f>Calculator!G109</f>
@@ -44319,7 +44319,7 @@
     <row customHeight="1" r="58" ht="15.0" spans="1:13">
       <c s="147" r="B58" t="s"/>
       <c s="177" r="C58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c s="178" r="D58">
         <f>Calculator!G110</f>
@@ -44345,7 +44345,7 @@
     <row customHeight="1" r="59" ht="15.0" spans="1:13">
       <c s="147" r="B59" t="s"/>
       <c s="177" r="C59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c s="178" r="D59">
         <f>Calculator!G111</f>
@@ -44371,7 +44371,7 @@
     <row customHeight="1" r="60" ht="15.0" spans="1:13">
       <c s="147" r="B60" t="s"/>
       <c s="177" r="C60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c s="178" r="D60">
         <f>Calculator!G112</f>
@@ -44611,10 +44611,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="44" r="E18" t="s">
         <v>114</v>
@@ -44638,7 +44638,7 @@
     <row r="20" spans="1:6">
       <c s="19" r="A20" t="s"/>
       <c s="19" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C20" t="n">
         <v>0</v>
@@ -44671,10 +44671,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="19" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C23" t="s"/>
       <c s="19" r="D23" t="s"/>
@@ -44921,10 +44921,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="47" r="E44" t="s">
         <v>113</v>
@@ -44952,7 +44952,7 @@
     <row r="46" spans="1:6">
       <c s="19" r="A46" t="s"/>
       <c s="19" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C46" t="n">
         <v>0</v>
@@ -44980,10 +44980,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="19" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C48" t="s"/>
       <c s="19" r="D48" t="s"/>
@@ -45338,10 +45338,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="44" r="E18" t="s">
         <v>114</v>
@@ -45365,7 +45365,7 @@
     <row r="20" spans="1:6">
       <c s="19" r="A20" t="s"/>
       <c s="19" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C20" t="n">
         <v>0</v>
@@ -45398,10 +45398,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="19" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C23" t="s"/>
       <c s="19" r="D23" t="s"/>
@@ -45648,10 +45648,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="47" r="E44" t="s">
         <v>113</v>
@@ -45679,7 +45679,7 @@
     <row r="46" spans="1:6">
       <c s="19" r="A46" t="s"/>
       <c s="19" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C46" t="n">
         <v>0</v>
@@ -45707,10 +45707,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="19" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C48" t="s"/>
       <c s="19" r="D48" t="s"/>
@@ -46098,10 +46098,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="44" r="E18" t="s">
         <v>114</v>
@@ -46125,7 +46125,7 @@
     <row r="20" spans="1:6">
       <c s="19" r="A20" t="s"/>
       <c s="19" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C20" t="n">
         <v>0</v>
@@ -46158,10 +46158,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="19" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C23" t="s"/>
       <c s="19" r="D23" t="s"/>
@@ -46408,10 +46408,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="47" r="E44" t="s">
         <v>113</v>
@@ -46439,7 +46439,7 @@
     <row r="46" spans="1:6">
       <c s="19" r="A46" t="s"/>
       <c s="19" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C46" t="n">
         <v>0</v>
@@ -46467,10 +46467,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="19" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C48" t="s"/>
       <c s="19" r="D48" t="s"/>
@@ -46759,10 +46759,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E18" t="s">
         <v>114</v>
@@ -46782,7 +46782,7 @@
     </row>
     <row r="20" spans="1:6">
       <c s="14" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C20">
         <f>(1+C19)^(1/12)-1</f>
@@ -46799,10 +46799,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="14" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -46992,10 +46992,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E44" t="s">
         <v>113</v>
@@ -47021,7 +47021,7 @@
     </row>
     <row r="46" spans="1:6">
       <c s="14" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C46">
         <f>(1+C45)^(1/12)-1</f>
@@ -47042,10 +47042,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="14" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -47272,10 +47272,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C80" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E80" t="s">
         <v>114</v>
@@ -47295,7 +47295,7 @@
     </row>
     <row r="82" spans="1:6">
       <c s="14" r="B82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C82">
         <f>(1+C81)^(1/12)-1</f>
@@ -47312,10 +47312,10 @@
     </row>
     <row r="85" spans="1:6">
       <c s="14" r="A85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -47505,10 +47505,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E106" t="s">
         <v>113</v>
@@ -47534,7 +47534,7 @@
     </row>
     <row r="108" spans="1:6">
       <c s="14" r="B108" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C108">
         <f>(1+C107)^(1/12)-1</f>
@@ -47555,10 +47555,10 @@
     </row>
     <row r="110" spans="1:6">
       <c s="14" r="A110" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -47785,10 +47785,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C141" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E141" t="s">
         <v>114</v>
@@ -47808,7 +47808,7 @@
     </row>
     <row r="143" spans="1:6">
       <c s="14" r="B143" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C143">
         <f>(1+C142)^(1/12)-1</f>
@@ -47825,10 +47825,10 @@
     </row>
     <row r="146" spans="1:6">
       <c s="14" r="A146" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B146" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -48018,10 +48018,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D167" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E167" t="s">
         <v>113</v>
@@ -48047,7 +48047,7 @@
     </row>
     <row r="169" spans="1:6">
       <c s="14" r="B169" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C169">
         <f>(1+C168)^(1/12)-1</f>
@@ -48068,10 +48068,10 @@
     </row>
     <row r="171" spans="1:6">
       <c s="14" r="A171" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -48231,7 +48231,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="190" spans="1:6">
       <c s="144" r="B190" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" r="191" ht="20.0" spans="1:6">
@@ -48292,10 +48292,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C203" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D203" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E203" t="s">
         <v>114</v>
@@ -48315,7 +48315,7 @@
     </row>
     <row r="205" spans="1:6">
       <c s="14" r="B205" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C205">
         <f>(1+C204)^(1/12)-1</f>
@@ -48332,10 +48332,10 @@
     </row>
     <row r="208" spans="1:6">
       <c s="14" r="A208" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B208" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -48525,10 +48525,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C229" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D229" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E229" t="s">
         <v>113</v>
@@ -48554,7 +48554,7 @@
     </row>
     <row r="231" spans="1:6">
       <c s="14" r="B231" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C231">
         <f>(1+C230)^(1/12)-1</f>
@@ -48575,10 +48575,10 @@
     </row>
     <row r="233" spans="1:6">
       <c s="14" r="A233" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B233" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -48738,7 +48738,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="252" spans="1:6">
       <c s="144" r="B252" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row customHeight="1" r="253" ht="20.0" spans="1:6">
@@ -48799,10 +48799,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C265" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D265" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E265" t="s">
         <v>114</v>
@@ -48822,7 +48822,7 @@
     </row>
     <row r="267" spans="1:6">
       <c s="14" r="B267" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C267">
         <f>(1+C266)^(1/12)-1</f>
@@ -48839,10 +48839,10 @@
     </row>
     <row r="270" spans="1:6">
       <c s="14" r="A270" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B270" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -49032,10 +49032,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C291" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D291" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E291" t="s">
         <v>113</v>
@@ -49061,7 +49061,7 @@
     </row>
     <row r="293" spans="1:6">
       <c s="14" r="B293" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C293">
         <f>(1+C292)^(1/12)-1</f>
@@ -49082,10 +49082,10 @@
     </row>
     <row r="295" spans="1:6">
       <c s="14" r="A295" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B295" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -49333,10 +49333,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E18" t="s">
         <v>114</v>
@@ -49356,7 +49356,7 @@
     </row>
     <row r="20" spans="1:6">
       <c s="14" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C20">
         <f>(1+C19)^(1/12)-1</f>
@@ -49373,10 +49373,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="14" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -49571,10 +49571,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D45" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E45" t="s">
         <v>113</v>
@@ -49600,7 +49600,7 @@
     </row>
     <row r="47" spans="1:6">
       <c s="14" r="B47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C47">
         <f>(1+C46)^(1/12)-1</f>
@@ -49621,10 +49621,10 @@
     </row>
     <row r="49" spans="1:6">
       <c s="14" r="A49" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -49845,10 +49845,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C81" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D81" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E81" t="s">
         <v>114</v>
@@ -49868,7 +49868,7 @@
     </row>
     <row r="83" spans="1:6">
       <c s="14" r="B83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C83">
         <f>(1+C82)^(1/12)-1</f>
@@ -49885,10 +49885,10 @@
     </row>
     <row r="86" spans="1:6">
       <c s="14" r="A86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B86" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -50083,10 +50083,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E108" t="s">
         <v>113</v>
@@ -50112,7 +50112,7 @@
     </row>
     <row r="110" spans="1:6">
       <c s="14" r="B110" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C110">
         <f>(1+C109)^(1/12)-1</f>
@@ -50133,10 +50133,10 @@
     </row>
     <row r="112" spans="1:6">
       <c s="14" r="A112" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B112" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -50320,7 +50320,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="131" spans="1:6">
       <c s="144" r="B131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row customHeight="1" r="132" ht="20.0" spans="1:6">
@@ -50381,10 +50381,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C144" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D144" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E144" t="s">
         <v>114</v>
@@ -50404,7 +50404,7 @@
     </row>
     <row r="146" spans="1:6">
       <c s="14" r="B146" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C146">
         <f>(1+C145)^(1/12)-1</f>
@@ -50421,10 +50421,10 @@
     </row>
     <row r="149" spans="1:6">
       <c s="14" r="A149" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B149" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -50619,10 +50619,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D171" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E171" t="s">
         <v>113</v>
@@ -50648,7 +50648,7 @@
     </row>
     <row r="173" spans="1:6">
       <c s="14" r="B173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C173">
         <f>(1+C172)^(1/12)-1</f>
@@ -50669,10 +50669,10 @@
     </row>
     <row r="175" spans="1:6">
       <c s="14" r="A175" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B175" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -50832,7 +50832,7 @@
     </row>
     <row customFormat="1" ht="29.0" customHeight="1" s="146" r="193" spans="1:6">
       <c s="144" r="B193" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row customHeight="1" r="194" ht="20.0" spans="1:6">
@@ -50893,10 +50893,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C206" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D206" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E206" t="s">
         <v>114</v>
@@ -50916,7 +50916,7 @@
     </row>
     <row r="208" spans="1:6">
       <c s="14" r="B208" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C208">
         <f>(1+C207)^(1/12)-1</f>
@@ -50933,10 +50933,10 @@
     </row>
     <row r="211" spans="1:6">
       <c s="14" r="A211" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B211" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -51131,10 +51131,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C233" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D233" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E233" t="s">
         <v>113</v>
@@ -51160,7 +51160,7 @@
     </row>
     <row r="235" spans="1:6">
       <c s="14" r="B235" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C235">
         <f>(1+C234)^(1/12)-1</f>
@@ -51181,10 +51181,10 @@
     </row>
     <row r="237" spans="1:6">
       <c s="14" r="A237" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B237" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -51358,7 +51358,7 @@
         <v>0.8052</v>
       </c>
       <c s="19" r="D259" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -51407,10 +51407,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C269" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D269" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="35" r="E269" t="s">
         <v>114</v>
@@ -51430,7 +51430,7 @@
     </row>
     <row r="271" spans="1:6">
       <c s="14" r="B271" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C271">
         <f>(1+C270)^(1/12)-1</f>
@@ -51447,10 +51447,10 @@
     </row>
     <row r="274" spans="1:6">
       <c s="14" r="A274" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B274" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -51645,10 +51645,10 @@
         <v>117</v>
       </c>
       <c s="14" r="C296" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="34" r="D296" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="41" r="E296" t="s">
         <v>113</v>
@@ -51674,7 +51674,7 @@
     </row>
     <row r="298" spans="1:6">
       <c s="14" r="B298" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="20" r="C298">
         <f>(1+C297)^(1/12)-1</f>
@@ -51695,10 +51695,10 @@
     </row>
     <row r="300" spans="1:6">
       <c s="14" r="A300" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="14" r="B300" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -52016,10 +52016,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C18" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c s="44" r="E18" t="s">
         <v>114</v>
@@ -52043,7 +52043,7 @@
     <row r="20" spans="1:6">
       <c s="19" r="A20" t="s"/>
       <c s="19" r="B20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C20" t="n">
         <v>0</v>
@@ -52076,10 +52076,10 @@
     </row>
     <row r="23" spans="1:6">
       <c s="19" r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C23" t="s"/>
       <c s="19" r="D23" t="s"/>
@@ -52334,10 +52334,10 @@
         <v>117</v>
       </c>
       <c s="19" r="C44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c s="43" r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c s="47" r="E44" t="s">
         <v>113</v>
@@ -52365,7 +52365,7 @@
     <row r="46" spans="1:6">
       <c s="19" r="A46" t="s"/>
       <c s="19" r="B46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c s="26" r="C46" t="n">
         <v>0</v>
@@ -52393,10 +52393,10 @@
     </row>
     <row r="48" spans="1:6">
       <c s="19" r="A48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c s="19" r="B48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c s="19" r="C48" t="s"/>
       <c s="19" r="D48" t="s"/>
